--- a/Beneficient/test_DealLog(SF-BIDS)/Reference Data/FieldData.xlsx
+++ b/Beneficient/test_DealLog(SF-BIDS)/Reference Data/FieldData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIDS\beneficienttest\Beneficient\test_DealLog(SF-BIDS)\Reference Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEEC84B-DD41-4D55-AF5F-8F47DA274E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD7BED5-E958-45D1-81D1-9B3DC58749A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
   <si>
     <t>Date of Intro Deal</t>
   </si>
@@ -235,36 +235,15 @@
     <t>abc2</t>
   </si>
   <si>
-    <t>abc3</t>
-  </si>
-  <si>
-    <t>abc4</t>
-  </si>
-  <si>
-    <t>abc5</t>
-  </si>
-  <si>
     <t>abc6</t>
   </si>
   <si>
     <t>abc7</t>
   </si>
   <si>
-    <t>abc8</t>
-  </si>
-  <si>
-    <t>abc9</t>
-  </si>
-  <si>
     <t>abc10</t>
   </si>
   <si>
-    <t>abc11</t>
-  </si>
-  <si>
-    <t>abc12</t>
-  </si>
-  <si>
     <t>abc13</t>
   </si>
   <si>
@@ -274,9 +253,6 @@
     <t>abc15</t>
   </si>
   <si>
-    <t>abc16</t>
-  </si>
-  <si>
     <t>abc17</t>
   </si>
   <si>
@@ -331,9 +307,6 @@
     <t>abc34</t>
   </si>
   <si>
-    <t>abc35</t>
-  </si>
-  <si>
     <t>//div[@title='New']</t>
   </si>
   <si>
@@ -350,6 +323,54 @@
   </si>
   <si>
     <t>Opportunity create popup section</t>
+  </si>
+  <si>
+    <t>//div[@class='slds-spinner_container slds-grid']</t>
+  </si>
+  <si>
+    <t>Loader</t>
+  </si>
+  <si>
+    <t>Opportunity Name</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Sub Stage</t>
+  </si>
+  <si>
+    <t>NDA Status</t>
+  </si>
+  <si>
+    <t>NDA Executed</t>
+  </si>
+  <si>
+    <t>Liquidity Request ID</t>
+  </si>
+  <si>
+    <t>Liquidity Request Date</t>
+  </si>
+  <si>
+    <t>Unfunded Remaining</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Financial Account</t>
+  </si>
+  <si>
+    <t>Lead and Referral Source</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>Test Jan 10</t>
   </si>
 </sst>
 </file>
@@ -385,7 +406,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,8 +419,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -422,15 +449,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,417 +767,486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.90625" style="8" customWidth="1"/>
     <col min="3" max="3" width="57.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>70</v>
+      <c r="B4" s="8">
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>71</v>
+      <c r="B5" s="8">
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>73</v>
+      <c r="B7" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>74</v>
+      <c r="B8" s="8">
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>75</v>
+      <c r="B9" s="8">
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>76</v>
+      <c r="B10" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>77</v>
+      <c r="B11" s="8">
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>78</v>
+      <c r="B12" s="8">
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>79</v>
+      <c r="B13" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>80</v>
+      <c r="B14" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>81</v>
+      <c r="B15" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>82</v>
+      <c r="B16" s="8">
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>83</v>
+      <c r="B17" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>84</v>
+      <c r="B18" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>85</v>
+      <c r="B19" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>86</v>
+      <c r="B20" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>87</v>
+      <c r="B21" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>88</v>
+      <c r="B22" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>89</v>
+      <c r="B23" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>90</v>
+      <c r="B24" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>91</v>
+      <c r="B25" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>92</v>
+      <c r="B26" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>93</v>
+      <c r="B27" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>94</v>
+      <c r="B28" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>95</v>
+      <c r="B29" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>96</v>
+      <c r="B30" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>97</v>
+      <c r="B31" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>98</v>
+      <c r="B32" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>99</v>
+      <c r="B33" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>100</v>
+      <c r="B34" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D34" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>101</v>
+      <c r="B35" s="8">
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="D35" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="8">
+        <v>2</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D38" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="chrome-extension://aodjmnfhjibkcdimpodiifdjnnncaafh/inspect.html?host=beneficient.my.salesforce.com&amp;objectType=OpportunityContactRole" xr:uid="{2A4ABA63-6893-47A5-81AF-FFF49DBB5EC6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BADF4B-1657-4379-8624-25C5B9E1BD5E}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -1135,26 +1260,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Beneficient/test_DealLog(SF-BIDS)/Reference Data/FieldData.xlsx
+++ b/Beneficient/test_DealLog(SF-BIDS)/Reference Data/FieldData.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -474,7 +474,7 @@
       <c r="B1" s="6" t="n"/>
       <c r="C1" s="7" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>Jan 25, 2022</t>
         </is>
       </c>
       <c r="D1" s="5" t="inlineStr">
@@ -502,7 +502,7 @@
       <c r="B2" s="6" t="n"/>
       <c r="C2" s="7" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>0061F00000Ex4XPQAZ</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>Test Fin Acc</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>test5</t>
+          <t>Test account name</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
@@ -596,11 +596,7 @@
         </is>
       </c>
       <c r="B6" s="6" t="n"/>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>test6</t>
-        </is>
-      </c>
+      <c r="C6" s="7" t="n"/>
       <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Intermediary Name</t>
@@ -619,11 +615,7 @@
         </is>
       </c>
       <c r="B7" s="6" t="n"/>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>test7</t>
-        </is>
-      </c>
+      <c r="C7" s="7" t="n"/>
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Intermediary Contact</t>
@@ -642,11 +634,7 @@
         </is>
       </c>
       <c r="B8" s="6" t="n"/>
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t>test8</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="n"/>
       <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Channel / Seller Type</t>
@@ -669,7 +657,7 @@
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>test9</t>
+          <t>Advisor</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
@@ -694,7 +682,7 @@
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>test10</t>
+          <t>Co-Investment</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
@@ -721,7 +709,7 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>test11</t>
+          <t>Closed Lost</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
@@ -800,7 +788,7 @@
           <t>Blank</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Blank</t>
         </is>
@@ -827,7 +815,7 @@
           <t>Blank</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Blank</t>
         </is>
@@ -854,7 +842,7 @@
       </c>
       <c r="C16" s="7" t="inlineStr">
         <is>
-          <t>test12</t>
+          <t>Auction - 2 Stage</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
@@ -879,11 +867,7 @@
           <t>abc18</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
-        <is>
-          <t>test13</t>
-        </is>
-      </c>
+      <c r="C17" s="7" t="n"/>
       <c r="D17" s="5" t="inlineStr">
         <is>
           <t>Asset Type</t>
@@ -906,11 +890,7 @@
           <t>abc19</t>
         </is>
       </c>
-      <c r="C18" s="7" t="inlineStr">
-        <is>
-          <t>test14</t>
-        </is>
-      </c>
+      <c r="C18" s="7" t="n"/>
       <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Asset Subtype</t>
@@ -929,11 +909,7 @@
         </is>
       </c>
       <c r="B19" s="6" t="n"/>
-      <c r="C19" s="7" t="inlineStr">
-        <is>
-          <t>test15</t>
-        </is>
-      </c>
+      <c r="C19" s="7" t="n"/>
       <c r="D19" s="5" t="inlineStr">
         <is>
           <t>NAV</t>
@@ -952,11 +928,7 @@
         </is>
       </c>
       <c r="B20" s="6" t="n"/>
-      <c r="C20" s="7" t="inlineStr">
-        <is>
-          <t>test16</t>
-        </is>
-      </c>
+      <c r="C20" s="7" t="n"/>
       <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Original Commitment</t>
@@ -975,11 +947,7 @@
         </is>
       </c>
       <c r="B21" s="6" t="n"/>
-      <c r="C21" s="7" t="inlineStr">
-        <is>
-          <t>test17</t>
-        </is>
-      </c>
+      <c r="C21" s="7" t="n"/>
       <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Unfunded Commitment</t>
@@ -998,11 +966,7 @@
         </is>
       </c>
       <c r="B22" s="6" t="n"/>
-      <c r="C22" s="7" t="inlineStr">
-        <is>
-          <t>test18</t>
-        </is>
-      </c>
+      <c r="C22" s="7" t="n"/>
       <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Follow-on Investment</t>
@@ -1025,7 +989,7 @@
       </c>
       <c r="C23" s="7" t="inlineStr">
         <is>
-          <t>test19</t>
+          <t>12.0%</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr">
@@ -1050,7 +1014,7 @@
           <t>Blank</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Blank</t>
         </is>
@@ -1075,7 +1039,7 @@
       <c r="B25" s="6" t="n"/>
       <c r="C25" s="7" t="inlineStr">
         <is>
-          <t>test20</t>
+          <t>Neeraj Kumar</t>
         </is>
       </c>
       <c r="D25" s="5" t="inlineStr">
@@ -1100,7 +1064,7 @@
       </c>
       <c r="C26" s="7" t="inlineStr">
         <is>
-          <t>test21</t>
+          <t>Not Needed</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
@@ -1125,7 +1089,7 @@
       </c>
       <c r="C27" s="7" t="inlineStr">
         <is>
-          <t>test22</t>
+          <t>Jan 28, 2022</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
@@ -1152,7 +1116,7 @@
       </c>
       <c r="C28" s="7" t="inlineStr">
         <is>
-          <t>test23</t>
+          <t>TestReq ID</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
@@ -1177,7 +1141,7 @@
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>test24</t>
+          <t>Jan 29, 2022</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
@@ -1200,7 +1164,7 @@
       <c r="B30" s="6" t="n"/>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>test25</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
@@ -1225,7 +1189,7 @@
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>test26</t>
+          <t>Feb 01, 2022</t>
         </is>
       </c>
       <c r="D31" s="5" t="inlineStr">
@@ -1250,7 +1214,7 @@
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>test27</t>
+          <t>Feb 04, 2022</t>
         </is>
       </c>
       <c r="D32" s="5" t="inlineStr">
@@ -1275,7 +1239,7 @@
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>test28</t>
+          <t>Jan 30, 2022</t>
         </is>
       </c>
       <c r="D33" s="5" t="inlineStr">
@@ -1300,7 +1264,7 @@
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>test29</t>
+          <t>Client Referral</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1281,7 @@
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>test30</t>
+          <t>Test Description</t>
         </is>
       </c>
     </row>
